--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8216" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8249" uniqueCount="830">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:20:25+00:00</t>
+    <t>2024-01-15T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1649,6 +1649,22 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t>eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
+</t>
+  </si>
+  <si>
+    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -1656,7 +1672,7 @@
 </t>
   </si>
   <si>
-    <t>autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
+    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
@@ -4216,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="199">
@@ -4232,7 +4248,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="201">
@@ -4384,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="221">
@@ -4400,7 +4416,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="223">
@@ -4552,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="243">
@@ -4568,7 +4584,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="245">
@@ -4696,7 +4712,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="262">
@@ -4720,7 +4736,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="265">
@@ -4736,7 +4752,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="267">
@@ -4874,7 +4890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK233"/>
+  <dimension ref="A1:AK234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4886,7 +4902,7 @@
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.55078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="29.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -18868,7 +18884,7 @@
         <v>507</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>294</v>
+        <v>527</v>
       </c>
       <c r="E134" t="s" s="2">
         <v>76</v>
@@ -18878,7 +18894,7 @@
         <v>77</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>133</v>
@@ -18890,13 +18906,13 @@
         <v>76</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -18967,14 +18983,16 @@
         <v>491</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="D135" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="E135" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
@@ -18984,29 +19002,25 @@
         <v>78</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>89</v>
+        <v>532</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>179</v>
+        <v>533</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>76</v>
       </c>
@@ -19042,19 +19056,19 @@
         <v>76</v>
       </c>
       <c r="AC135" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>77</v>
@@ -19074,14 +19088,14 @@
         <v>491</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -19094,23 +19108,25 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>532</v>
+        <v>179</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O136" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P136" t="s" s="2">
-        <v>534</v>
+        <v>181</v>
       </c>
       <c r="Q136" t="s" s="2">
         <v>76</v>
@@ -19147,10 +19163,10 @@
         <v>76</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>535</v>
+        <v>91</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>536</v>
+        <v>92</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>76</v>
@@ -19159,7 +19175,7 @@
         <v>93</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>531</v>
+        <v>182</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>77</v>
@@ -19171,7 +19187,7 @@
         <v>80</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137">
@@ -19179,14 +19195,12 @@
         <v>491</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>76</v>
       </c>
@@ -19195,10 +19209,10 @@
         <v>77</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>76</v>
@@ -19210,14 +19224,14 @@
         <v>184</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>76</v>
@@ -19254,19 +19268,19 @@
         <v>76</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>76</v>
+        <v>540</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>76</v>
+        <v>541</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>77</v>
@@ -19286,12 +19300,14 @@
         <v>491</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="D138" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="E138" t="s" s="2">
         <v>76</v>
       </c>
@@ -19303,25 +19319,27 @@
         <v>83</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>85</v>
+        <v>544</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>86</v>
+        <v>538</v>
       </c>
       <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
+      <c r="P138" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="Q138" t="s" s="2">
         <v>76</v>
       </c>
@@ -19369,19 +19387,19 @@
         <v>76</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>87</v>
+        <v>536</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139">
@@ -19389,21 +19407,21 @@
         <v>491</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>76</v>
@@ -19415,17 +19433,15 @@
         <v>76</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
         <v>76</v>
@@ -19462,31 +19478,31 @@
         <v>76</v>
       </c>
       <c r="AC139" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140">
@@ -19494,46 +19510,44 @@
         <v>491</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>546</v>
+        <v>174</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>547</v>
+        <v>237</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>76</v>
       </c>
@@ -19542,7 +19556,7 @@
         <v>76</v>
       </c>
       <c r="T140" t="s" s="2">
-        <v>550</v>
+        <v>76</v>
       </c>
       <c r="U140" t="s" s="2">
         <v>76</v>
@@ -19557,43 +19571,43 @@
         <v>76</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>551</v>
+        <v>76</v>
       </c>
       <c r="AA140" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="AB140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD140" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>553</v>
+        <v>94</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141">
@@ -19601,10 +19615,10 @@
         <v>491</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19612,7 +19626,7 @@
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>83</v>
@@ -19621,25 +19635,25 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P141" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="Q141" t="s" s="2">
         <v>76</v>
@@ -19649,7 +19663,7 @@
         <v>76</v>
       </c>
       <c r="T141" t="s" s="2">
-        <v>76</v>
+        <v>555</v>
       </c>
       <c r="U141" t="s" s="2">
         <v>76</v>
@@ -19664,13 +19678,13 @@
         <v>76</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AA141" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>76</v>
@@ -19688,7 +19702,7 @@
         <v>76</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>77</v>
@@ -19708,10 +19722,10 @@
         <v>491</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19734,19 +19748,19 @@
         <v>133</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>76</v>
@@ -19759,7 +19773,7 @@
         <v>76</v>
       </c>
       <c r="U142" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="V142" t="s" s="2">
         <v>76</v>
@@ -19771,13 +19785,13 @@
         <v>76</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>76</v>
+        <v>565</v>
       </c>
       <c r="AA142" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>76</v>
@@ -19795,7 +19809,7 @@
         <v>76</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>77</v>
@@ -19815,10 +19829,10 @@
         <v>491</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19841,18 +19855,20 @@
         <v>133</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P143" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="N143" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>76</v>
       </c>
@@ -19864,7 +19880,7 @@
         <v>76</v>
       </c>
       <c r="U143" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="V143" t="s" s="2">
         <v>76</v>
@@ -19900,7 +19916,7 @@
         <v>76</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>77</v>
@@ -19920,10 +19936,10 @@
         <v>491</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19946,16 +19962,16 @@
         <v>133</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="M144" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O144" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -19969,7 +19985,7 @@
         <v>76</v>
       </c>
       <c r="U144" t="s" s="2">
-        <v>76</v>
+        <v>581</v>
       </c>
       <c r="V144" t="s" s="2">
         <v>76</v>
@@ -20017,7 +20033,7 @@
         <v>80</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145">
@@ -20051,7 +20067,7 @@
         <v>133</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>585</v>
@@ -20060,7 +20076,7 @@
         <v>586</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>587</v>
+        <v>270</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
@@ -20110,7 +20126,7 @@
         <v>76</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>77</v>
@@ -20122,7 +20138,7 @@
         <v>80</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146">
@@ -20130,14 +20146,12 @@
         <v>491</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C146" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>590</v>
-      </c>
+      <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>76</v>
       </c>
@@ -20146,10 +20160,10 @@
         <v>77</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>76</v>
@@ -20158,18 +20172,18 @@
         <v>133</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>184</v>
+        <v>447</v>
       </c>
       <c r="M146" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N146" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O146" s="2"/>
-      <c r="P146" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="O146" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>76</v>
       </c>
@@ -20217,19 +20231,19 @@
         <v>76</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147">
@@ -20237,12 +20251,14 @@
         <v>491</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="E147" t="s" s="2">
         <v>76</v>
       </c>
@@ -20251,28 +20267,30 @@
         <v>77</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>85</v>
+        <v>596</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>86</v>
+        <v>538</v>
       </c>
       <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
+      <c r="P147" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="Q147" t="s" s="2">
         <v>76</v>
       </c>
@@ -20320,19 +20338,19 @@
         <v>76</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>87</v>
+        <v>536</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148">
@@ -20340,21 +20358,21 @@
         <v>491</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>76</v>
@@ -20366,17 +20384,15 @@
         <v>76</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
         <v>76</v>
@@ -20413,31 +20429,31 @@
         <v>76</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149">
@@ -20445,46 +20461,44 @@
         <v>491</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>546</v>
+        <v>174</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>547</v>
+        <v>237</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>76</v>
       </c>
@@ -20493,7 +20507,7 @@
         <v>76</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>595</v>
+        <v>76</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>76</v>
@@ -20508,43 +20522,43 @@
         <v>76</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>551</v>
+        <v>76</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="AB149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>553</v>
+        <v>94</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150">
@@ -20552,10 +20566,10 @@
         <v>491</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20563,7 +20577,7 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>83</v>
@@ -20572,25 +20586,25 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P150" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="Q150" t="s" s="2">
         <v>76</v>
@@ -20600,7 +20614,7 @@
         <v>76</v>
       </c>
       <c r="T150" t="s" s="2">
-        <v>76</v>
+        <v>600</v>
       </c>
       <c r="U150" t="s" s="2">
         <v>76</v>
@@ -20615,13 +20629,13 @@
         <v>76</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AB150" t="s" s="2">
         <v>76</v>
@@ -20639,7 +20653,7 @@
         <v>76</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>77</v>
@@ -20659,10 +20673,10 @@
         <v>491</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20685,19 +20699,19 @@
         <v>133</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P151" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>76</v>
@@ -20710,7 +20724,7 @@
         <v>76</v>
       </c>
       <c r="U151" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="V151" t="s" s="2">
         <v>76</v>
@@ -20722,13 +20736,13 @@
         <v>76</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>76</v>
+        <v>565</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AB151" t="s" s="2">
         <v>76</v>
@@ -20746,7 +20760,7 @@
         <v>76</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>77</v>
@@ -20766,10 +20780,10 @@
         <v>491</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20792,18 +20806,20 @@
         <v>133</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P152" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="N152" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>76</v>
       </c>
@@ -20815,7 +20831,7 @@
         <v>76</v>
       </c>
       <c r="U152" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="V152" t="s" s="2">
         <v>76</v>
@@ -20851,7 +20867,7 @@
         <v>76</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>77</v>
@@ -20871,10 +20887,10 @@
         <v>491</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20897,16 +20913,16 @@
         <v>133</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O153" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
@@ -20920,7 +20936,7 @@
         <v>76</v>
       </c>
       <c r="U153" t="s" s="2">
-        <v>76</v>
+        <v>581</v>
       </c>
       <c r="V153" t="s" s="2">
         <v>76</v>
@@ -20968,7 +20984,7 @@
         <v>80</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154">
@@ -20976,7 +20992,7 @@
         <v>491</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>584</v>
@@ -21002,7 +21018,7 @@
         <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>585</v>
@@ -21011,7 +21027,7 @@
         <v>586</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>587</v>
+        <v>270</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
@@ -21061,7 +21077,7 @@
         <v>76</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>77</v>
@@ -21073,7 +21089,7 @@
         <v>80</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155">
@@ -21081,10 +21097,10 @@
         <v>491</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -21098,7 +21114,7 @@
         <v>83</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>76</v>
@@ -21107,16 +21123,16 @@
         <v>133</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>84</v>
+        <v>447</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>215</v>
+        <v>592</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
@@ -21166,7 +21182,7 @@
         <v>76</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>77</v>
@@ -21178,7 +21194,7 @@
         <v>80</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="156">
@@ -21186,10 +21202,10 @@
         <v>491</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21200,10 +21216,10 @@
         <v>77</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>76</v>
@@ -21212,16 +21228,16 @@
         <v>133</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>605</v>
+        <v>84</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
@@ -21271,19 +21287,19 @@
         <v>76</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157">
@@ -21291,14 +21307,14 @@
         <v>491</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>609</v>
+        <v>76</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
@@ -21328,9 +21344,7 @@
       <c r="O157" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="P157" t="s" s="2">
-        <v>613</v>
-      </c>
+      <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
         <v>76</v>
       </c>
@@ -21378,7 +21392,7 @@
         <v>76</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>77</v>
@@ -21398,44 +21412,46 @@
         <v>491</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>76</v>
+        <v>614</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>150</v>
+        <v>615</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P158" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="P158" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="Q158" t="s" s="2">
         <v>76</v>
       </c>
@@ -21459,13 +21475,13 @@
         <v>76</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>617</v>
+        <v>76</v>
       </c>
       <c r="AA158" t="s" s="2">
-        <v>618</v>
+        <v>76</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>76</v>
@@ -21483,19 +21499,19 @@
         <v>76</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159">
@@ -21514,22 +21530,22 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>620</v>
@@ -21538,7 +21554,7 @@
         <v>621</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -21564,7 +21580,7 @@
         <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>622</v>
@@ -21591,7 +21607,7 @@
         <v>619</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>83</v>
@@ -21625,7 +21641,7 @@
         <v>83</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
         <v>76</v>
@@ -21671,9 +21687,11 @@
       <c r="Y160" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z160" s="2"/>
+      <c r="Z160" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="AA160" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AB160" t="s" s="2">
         <v>76</v>
@@ -21711,10 +21729,10 @@
         <v>491</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21725,7 +21743,7 @@
         <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>133</v>
@@ -21740,10 +21758,10 @@
         <v>118</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>246</v>
@@ -21776,7 +21794,7 @@
       </c>
       <c r="Z161" s="2"/>
       <c r="AA161" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AB161" t="s" s="2">
         <v>76</v>
@@ -21794,13 +21812,13 @@
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>80</v>
@@ -21814,10 +21832,10 @@
         <v>491</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21831,7 +21849,7 @@
         <v>78</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>76</v>
@@ -21843,10 +21861,10 @@
         <v>118</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>246</v>
@@ -21875,13 +21893,11 @@
         <v>76</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Z162" s="2"/>
       <c r="AA162" t="s" s="2">
-        <v>76</v>
+        <v>636</v>
       </c>
       <c r="AB162" t="s" s="2">
         <v>76</v>
@@ -21899,7 +21915,7 @@
         <v>76</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
@@ -21919,10 +21935,10 @@
         <v>491</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21936,7 +21952,7 @@
         <v>78</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
         <v>76</v>
@@ -21948,10 +21964,10 @@
         <v>118</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>246</v>
@@ -21983,10 +21999,10 @@
         <v>210</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>640</v>
+        <v>76</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>76</v>
@@ -21995,16 +22011,16 @@
         <v>76</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>641</v>
+        <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>77</v>
@@ -22024,14 +22040,12 @@
         <v>491</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D164" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>76</v>
       </c>
@@ -22055,10 +22069,10 @@
         <v>118</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>246</v>
@@ -22090,10 +22104,10 @@
         <v>210</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AB164" t="s" s="2">
         <v>76</v>
@@ -22102,16 +22116,16 @@
         <v>76</v>
       </c>
       <c r="AD164" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="AE164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>77</v>
@@ -22131,12 +22145,14 @@
         <v>491</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="D165" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="E165" t="s" s="2">
         <v>76</v>
       </c>
@@ -22145,27 +22161,29 @@
         <v>77</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>85</v>
+        <v>649</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
         <v>76</v>
@@ -22175,7 +22193,7 @@
         <v>76</v>
       </c>
       <c r="T165" t="s" s="2">
-        <v>647</v>
+        <v>76</v>
       </c>
       <c r="U165" t="s" s="2">
         <v>76</v>
@@ -22190,13 +22208,13 @@
         <v>76</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>76</v>
+        <v>644</v>
       </c>
       <c r="AA165" t="s" s="2">
-        <v>76</v>
+        <v>645</v>
       </c>
       <c r="AB165" t="s" s="2">
         <v>76</v>
@@ -22214,19 +22232,19 @@
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>87</v>
+        <v>641</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166">
@@ -22234,21 +22252,21 @@
         <v>491</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>76</v>
@@ -22260,17 +22278,15 @@
         <v>76</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>76</v>
@@ -22280,7 +22296,7 @@
         <v>76</v>
       </c>
       <c r="T166" t="s" s="2">
-        <v>76</v>
+        <v>652</v>
       </c>
       <c r="U166" t="s" s="2">
         <v>76</v>
@@ -22307,31 +22323,31 @@
         <v>76</v>
       </c>
       <c r="AC166" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD166" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167">
@@ -22339,14 +22355,14 @@
         <v>491</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
@@ -22362,23 +22378,21 @@
         <v>76</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>652</v>
+        <v>174</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>653</v>
+        <v>237</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="P167" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
         <v>76</v>
       </c>
@@ -22414,19 +22428,19 @@
         <v>76</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>656</v>
+        <v>94</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>77</v>
@@ -22438,7 +22452,7 @@
         <v>80</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168">
@@ -22446,10 +22460,10 @@
         <v>491</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22460,7 +22474,7 @@
         <v>77</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>76</v>
@@ -22469,19 +22483,23 @@
         <v>76</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>85</v>
+        <v>657</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="P168" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="Q168" t="s" s="2">
         <v>76</v>
       </c>
@@ -22529,19 +22547,19 @@
         <v>76</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>87</v>
+        <v>661</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169">
@@ -22549,21 +22567,21 @@
         <v>491</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I169" t="s" s="2">
         <v>76</v>
@@ -22575,17 +22593,15 @@
         <v>76</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
         <v>76</v>
@@ -22622,31 +22638,31 @@
         <v>76</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170">
@@ -22654,21 +22670,21 @@
         <v>491</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>76</v>
@@ -22677,23 +22693,21 @@
         <v>76</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>663</v>
+        <v>174</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>664</v>
+        <v>237</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="P170" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
         <v>76</v>
       </c>
@@ -22702,7 +22716,7 @@
         <v>76</v>
       </c>
       <c r="T170" t="s" s="2">
-        <v>667</v>
+        <v>76</v>
       </c>
       <c r="U170" t="s" s="2">
         <v>76</v>
@@ -22729,31 +22743,31 @@
         <v>76</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE170" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>668</v>
+        <v>94</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="171">
@@ -22761,10 +22775,10 @@
         <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22787,18 +22801,20 @@
         <v>133</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M171" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="P171" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="N171" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
         <v>76</v>
       </c>
@@ -22807,7 +22823,7 @@
         <v>76</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>76</v>
@@ -22846,7 +22862,7 @@
         <v>76</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
@@ -22866,10 +22882,10 @@
         <v>491</v>
       </c>
       <c r="B172" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C172" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22892,20 +22908,18 @@
         <v>133</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="M172" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="O172" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>679</v>
-      </c>
+      <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
         <v>76</v>
       </c>
@@ -22953,7 +22967,7 @@
         <v>76</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>77</v>
@@ -22973,10 +22987,10 @@
         <v>491</v>
       </c>
       <c r="B173" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22999,19 +23013,19 @@
         <v>133</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="M173" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N173" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>215</v>
       </c>
       <c r="P173" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>76</v>
@@ -23060,7 +23074,7 @@
         <v>76</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>77</v>
@@ -23080,10 +23094,10 @@
         <v>491</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -23106,19 +23120,19 @@
         <v>133</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="M174" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N174" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N174" t="s" s="2">
+      <c r="O174" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P174" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="P174" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="Q174" t="s" s="2">
         <v>76</v>
@@ -23167,7 +23181,7 @@
         <v>76</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>77</v>
@@ -23187,10 +23201,10 @@
         <v>491</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -23213,19 +23227,19 @@
         <v>133</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="M175" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="O175" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="N175" t="s" s="2">
+      <c r="P175" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="Q175" t="s" s="2">
         <v>76</v>
@@ -23274,7 +23288,7 @@
         <v>76</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>77</v>
@@ -23294,14 +23308,12 @@
         <v>491</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
         <v>76</v>
       </c>
@@ -23310,10 +23322,10 @@
         <v>77</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>76</v>
@@ -23322,18 +23334,20 @@
         <v>133</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M176" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="O176" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="N176" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P176" s="2"/>
+      <c r="P176" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="Q176" t="s" s="2">
         <v>76</v>
       </c>
@@ -23357,13 +23371,13 @@
         <v>76</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>639</v>
+        <v>76</v>
       </c>
       <c r="AA176" t="s" s="2">
-        <v>640</v>
+        <v>76</v>
       </c>
       <c r="AB176" t="s" s="2">
         <v>76</v>
@@ -23381,13 +23395,13 @@
         <v>76</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>636</v>
+        <v>705</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>80</v>
@@ -23401,12 +23415,14 @@
         <v>491</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="D177" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="E177" t="s" s="2">
         <v>76</v>
       </c>
@@ -23415,27 +23431,29 @@
         <v>77</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J177" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>85</v>
+        <v>708</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O177" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P177" s="2"/>
       <c r="Q177" t="s" s="2">
         <v>76</v>
@@ -23445,7 +23463,7 @@
         <v>76</v>
       </c>
       <c r="T177" t="s" s="2">
-        <v>705</v>
+        <v>76</v>
       </c>
       <c r="U177" t="s" s="2">
         <v>76</v>
@@ -23460,13 +23478,13 @@
         <v>76</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>76</v>
+        <v>644</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>76</v>
+        <v>645</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>76</v>
@@ -23484,19 +23502,19 @@
         <v>76</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>87</v>
+        <v>641</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178">
@@ -23504,21 +23522,21 @@
         <v>491</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>76</v>
@@ -23530,17 +23548,15 @@
         <v>76</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" t="s" s="2">
         <v>76</v>
@@ -23550,7 +23566,7 @@
         <v>76</v>
       </c>
       <c r="T178" t="s" s="2">
-        <v>76</v>
+        <v>710</v>
       </c>
       <c r="U178" t="s" s="2">
         <v>76</v>
@@ -23577,31 +23593,31 @@
         <v>76</v>
       </c>
       <c r="AC178" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179">
@@ -23609,14 +23625,14 @@
         <v>491</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" t="s" s="2">
@@ -23632,23 +23648,21 @@
         <v>76</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>652</v>
+        <v>174</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>653</v>
+        <v>237</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="P179" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
         <v>76</v>
       </c>
@@ -23684,19 +23698,19 @@
         <v>76</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD179" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE179" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>656</v>
+        <v>94</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>77</v>
@@ -23708,7 +23722,7 @@
         <v>80</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="180">
@@ -23716,10 +23730,10 @@
         <v>491</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>695</v>
+        <v>656</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23727,10 +23741,10 @@
       </c>
       <c r="F180" s="2"/>
       <c r="G180" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>76</v>
@@ -23742,19 +23756,19 @@
         <v>133</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>696</v>
+        <v>657</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>697</v>
+        <v>658</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>698</v>
+        <v>659</v>
       </c>
       <c r="P180" t="s" s="2">
-        <v>699</v>
+        <v>660</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>76</v>
@@ -23803,13 +23817,13 @@
         <v>76</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -23823,10 +23837,10 @@
         <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -23834,13 +23848,13 @@
       </c>
       <c r="F181" s="2"/>
       <c r="G181" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J181" t="s" s="2">
         <v>76</v>
@@ -23849,16 +23863,20 @@
         <v>133</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>710</v>
+        <v>84</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="P181" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="Q181" t="s" s="2">
         <v>76</v>
       </c>
@@ -23906,13 +23924,13 @@
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>80</v>
@@ -23926,10 +23944,10 @@
         <v>491</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23940,25 +23958,25 @@
         <v>77</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>84</v>
+        <v>715</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>85</v>
+        <v>716</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>86</v>
+        <v>717</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -24009,19 +24027,19 @@
         <v>76</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>87</v>
+        <v>714</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183">
@@ -24029,21 +24047,21 @@
         <v>491</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>76</v>
@@ -24055,17 +24073,15 @@
         <v>76</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>76</v>
@@ -24102,31 +24118,31 @@
         <v>76</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184">
@@ -24134,26 +24150,24 @@
         <v>491</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="D184" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J184" t="s" s="2">
         <v>76</v>
@@ -24162,15 +24176,17 @@
         <v>76</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>716</v>
+        <v>89</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>717</v>
+        <v>174</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O184" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
         <v>76</v>
@@ -24207,16 +24223,16 @@
         <v>76</v>
       </c>
       <c r="AC184" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD184" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE184" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>94</v>
@@ -24239,13 +24255,13 @@
         <v>491</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="E185" t="s" s="2">
         <v>76</v>
@@ -24267,13 +24283,13 @@
         <v>76</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -24344,13 +24360,13 @@
         <v>491</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>76</v>
@@ -24372,13 +24388,13 @@
         <v>76</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -24449,13 +24465,13 @@
         <v>491</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>76</v>
@@ -24468,7 +24484,7 @@
         <v>83</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>76</v>
@@ -24477,13 +24493,13 @@
         <v>76</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -24554,12 +24570,14 @@
         <v>491</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="D188" s="2"/>
+        <v>719</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="E188" t="s" s="2">
         <v>76</v>
       </c>
@@ -24577,20 +24595,18 @@
         <v>76</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>84</v>
+        <v>730</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>730</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
         <v>76</v>
@@ -24639,19 +24655,19 @@
         <v>76</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>731</v>
+        <v>94</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189">
@@ -24673,7 +24689,7 @@
         <v>77</v>
       </c>
       <c r="H189" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I189" t="s" s="2">
         <v>76</v>
@@ -24685,7 +24701,7 @@
         <v>133</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>375</v>
+        <v>84</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>733</v>
@@ -24693,7 +24709,9 @@
       <c r="N189" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="O189" s="2"/>
+      <c r="O189" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
         <v>76</v>
@@ -24742,19 +24760,19 @@
         <v>76</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>378</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190">
@@ -24762,10 +24780,10 @@
         <v>491</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24779,16 +24797,16 @@
         <v>78</v>
       </c>
       <c r="I190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J190" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L190" t="s" s="2">
-        <v>737</v>
+        <v>375</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>738</v>
@@ -24796,9 +24814,7 @@
       <c r="N190" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="O190" t="s" s="2">
-        <v>740</v>
-      </c>
+      <c r="O190" s="2"/>
       <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
         <v>76</v>
@@ -24847,7 +24863,7 @@
         <v>76</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>77</v>
@@ -24859,7 +24875,7 @@
         <v>80</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>104</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191">
@@ -24884,25 +24900,25 @@
         <v>78</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J191" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>118</v>
+        <v>742</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>246</v>
+        <v>745</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
@@ -24928,10 +24944,10 @@
         <v>76</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>744</v>
+        <v>76</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>76</v>
@@ -24972,10 +24988,10 @@
         <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -24989,7 +25005,7 @@
         <v>78</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J192" t="s" s="2">
         <v>76</v>
@@ -25001,10 +25017,10 @@
         <v>118</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>246</v>
@@ -25033,13 +25049,13 @@
         <v>76</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AA192" t="s" s="2">
-        <v>749</v>
+        <v>76</v>
       </c>
       <c r="AB192" t="s" s="2">
         <v>76</v>
@@ -25057,7 +25073,7 @@
         <v>76</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>77</v>
@@ -25091,7 +25107,7 @@
         <v>77</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>133</v>
@@ -25100,19 +25116,19 @@
         <v>76</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="N193" t="s" s="2">
-        <v>753</v>
-      </c>
       <c r="O193" t="s" s="2">
-        <v>754</v>
+        <v>246</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
@@ -25138,13 +25154,13 @@
         <v>76</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>76</v>
+        <v>753</v>
       </c>
       <c r="AA193" t="s" s="2">
-        <v>76</v>
+        <v>754</v>
       </c>
       <c r="AB193" t="s" s="2">
         <v>76</v>
@@ -25168,7 +25184,7 @@
         <v>77</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>80</v>
@@ -25189,14 +25205,14 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>756</v>
+        <v>76</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I194" t="s" s="2">
         <v>133</v>
@@ -25205,19 +25221,19 @@
         <v>76</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>757</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="N194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
@@ -25273,13 +25289,13 @@
         <v>77</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="195">
@@ -25287,24 +25303,24 @@
         <v>491</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I195" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J195" t="s" s="2">
         <v>76</v>
@@ -25313,7 +25329,7 @@
         <v>133</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>267</v>
+        <v>762</v>
       </c>
       <c r="M195" t="s" s="2">
         <v>763</v>
@@ -25322,7 +25338,7 @@
         <v>764</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>270</v>
+        <v>765</v>
       </c>
       <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
@@ -25372,19 +25388,19 @@
         <v>76</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>271</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196">
@@ -25392,14 +25408,14 @@
         <v>491</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>76</v>
+        <v>767</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" t="s" s="2">
@@ -25409,7 +25425,7 @@
         <v>83</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>76</v>
@@ -25418,16 +25434,16 @@
         <v>133</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
@@ -25477,7 +25493,7 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
@@ -25489,7 +25505,7 @@
         <v>80</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197">
@@ -25497,10 +25513,10 @@
         <v>491</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25514,7 +25530,7 @@
         <v>83</v>
       </c>
       <c r="I197" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J197" t="s" s="2">
         <v>76</v>
@@ -25523,13 +25539,13 @@
         <v>133</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>769</v>
+        <v>447</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>283</v>
@@ -25582,7 +25598,7 @@
         <v>76</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
@@ -25602,10 +25618,10 @@
         <v>491</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25616,10 +25632,10 @@
         <v>77</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I198" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J198" t="s" s="2">
         <v>76</v>
@@ -25628,13 +25644,13 @@
         <v>133</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>283</v>
@@ -25687,13 +25703,13 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>80</v>
@@ -25707,10 +25723,10 @@
         <v>491</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25721,10 +25737,10 @@
         <v>77</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J199" t="s" s="2">
         <v>76</v>
@@ -25733,16 +25749,16 @@
         <v>133</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>118</v>
+        <v>778</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
@@ -25768,13 +25784,13 @@
         <v>76</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>779</v>
+        <v>76</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>780</v>
+        <v>76</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>76</v>
@@ -25792,19 +25808,19 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200">
@@ -25826,7 +25842,7 @@
         <v>77</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I200" t="s" s="2">
         <v>76</v>
@@ -25835,19 +25851,19 @@
         <v>76</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="N200" t="s" s="2">
-        <v>784</v>
-      </c>
       <c r="O200" t="s" s="2">
-        <v>785</v>
+        <v>246</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -25873,13 +25889,13 @@
         <v>76</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>76</v>
+        <v>784</v>
       </c>
       <c r="AA200" t="s" s="2">
-        <v>76</v>
+        <v>785</v>
       </c>
       <c r="AB200" t="s" s="2">
         <v>76</v>
@@ -25903,7 +25919,7 @@
         <v>77</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>80</v>
@@ -25943,15 +25959,17 @@
         <v>76</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>230</v>
+        <v>787</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="O201" s="2"/>
+        <v>789</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>790</v>
+      </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>76</v>
@@ -26020,10 +26038,10 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26034,7 +26052,7 @@
         <v>77</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>76</v>
@@ -26046,13 +26064,13 @@
         <v>76</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>85</v>
+        <v>792</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>86</v>
+        <v>793</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
@@ -26103,19 +26121,19 @@
         <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>87</v>
+        <v>791</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203">
@@ -26123,21 +26141,21 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I203" t="s" s="2">
         <v>76</v>
@@ -26149,17 +26167,15 @@
         <v>76</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O203" s="2"/>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
         <v>76</v>
@@ -26196,31 +26212,31 @@
         <v>76</v>
       </c>
       <c r="AC203" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD203" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE203" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204">
@@ -26228,14 +26244,14 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
@@ -26248,26 +26264,24 @@
         <v>76</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L204" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="P204" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>76</v>
       </c>
@@ -26303,19 +26317,19 @@
         <v>76</v>
       </c>
       <c r="AC204" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD204" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE204" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
@@ -26335,44 +26349,46 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>793</v>
+        <v>240</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>794</v>
+        <v>241</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P205" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="P205" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q205" t="s" s="2">
         <v>76</v>
       </c>
@@ -26420,19 +26436,19 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>792</v>
+        <v>242</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="206">
@@ -26440,10 +26456,10 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26451,7 +26467,7 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>83</v>
@@ -26466,16 +26482,16 @@
         <v>76</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
@@ -26525,10 +26541,10 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>83</v>
@@ -26545,10 +26561,10 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26571,16 +26587,16 @@
         <v>76</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -26630,7 +26646,7 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
@@ -26650,10 +26666,10 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26664,7 +26680,7 @@
         <v>77</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>76</v>
@@ -26676,15 +26692,17 @@
         <v>76</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O208" s="2"/>
+        <v>805</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
         <v>76</v>
@@ -26733,13 +26751,13 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>80</v>
@@ -26753,10 +26771,10 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26767,7 +26785,7 @@
         <v>77</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>76</v>
@@ -26779,13 +26797,13 @@
         <v>76</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>85</v>
+        <v>807</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>86</v>
+        <v>808</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
@@ -26836,19 +26854,19 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>87</v>
+        <v>806</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210">
@@ -26856,21 +26874,21 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>76</v>
@@ -26882,17 +26900,15 @@
         <v>76</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O210" s="2"/>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>76</v>
@@ -26929,31 +26945,31 @@
         <v>76</v>
       </c>
       <c r="AC210" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD210" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE210" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211">
@@ -26961,14 +26977,14 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" t="s" s="2">
@@ -26981,26 +26997,24 @@
         <v>76</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L211" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="P211" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>76</v>
       </c>
@@ -27036,19 +27050,19 @@
         <v>76</v>
       </c>
       <c r="AC211" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD211" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
@@ -27068,44 +27082,46 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>808</v>
+        <v>240</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>809</v>
+        <v>241</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P212" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="P212" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q212" t="s" s="2">
         <v>76</v>
       </c>
@@ -27153,19 +27169,19 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>807</v>
+        <v>242</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213">
@@ -27173,10 +27189,10 @@
         <v>491</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27199,16 +27215,16 @@
         <v>76</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
@@ -27234,13 +27250,13 @@
         <v>76</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>813</v>
+        <v>76</v>
       </c>
       <c r="AA213" t="s" s="2">
-        <v>814</v>
+        <v>76</v>
       </c>
       <c r="AB213" t="s" s="2">
         <v>76</v>
@@ -27258,7 +27274,7 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
@@ -27275,13 +27291,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>31</v>
+        <v>815</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>31</v>
+        <v>815</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27292,7 +27308,7 @@
         <v>77</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>76</v>
@@ -27304,15 +27320,17 @@
         <v>76</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>31</v>
+        <v>816</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>817</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27337,13 +27355,13 @@
         <v>76</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>76</v>
+        <v>818</v>
       </c>
       <c r="AA214" t="s" s="2">
-        <v>76</v>
+        <v>819</v>
       </c>
       <c r="AB214" t="s" s="2">
         <v>76</v>
@@ -27361,19 +27379,19 @@
         <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>31</v>
+        <v>815</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215">
@@ -27381,10 +27399,10 @@
         <v>509</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27395,7 +27413,7 @@
         <v>77</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>76</v>
@@ -27407,13 +27425,13 @@
         <v>76</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>86</v>
+        <v>512</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
@@ -27464,19 +27482,19 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216">
@@ -27484,10 +27502,10 @@
         <v>509</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27498,7 +27516,7 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>76</v>
@@ -27510,13 +27528,13 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -27555,31 +27573,31 @@
         <v>76</v>
       </c>
       <c r="AC216" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD216" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE216" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217">
@@ -27587,10 +27605,10 @@
         <v>509</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27598,10 +27616,10 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>76</v>
@@ -27613,24 +27631,22 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O217" s="2"/>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R217" s="2"/>
       <c r="S217" t="s" s="2">
-        <v>815</v>
+        <v>76</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>76</v>
@@ -27660,31 +27676,31 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218">
@@ -27692,10 +27708,10 @@
         <v>509</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27703,7 +27719,7 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>83</v>
@@ -27718,22 +27734,24 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>817</v>
+        <v>96</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>76</v>
+        <v>820</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -27775,30 +27793,30 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27809,7 +27827,7 @@
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -27821,13 +27839,13 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>79</v>
+        <v>822</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>525</v>
+        <v>103</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -27878,19 +27896,19 @@
         <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220">
@@ -27898,10 +27916,10 @@
         <v>522</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27912,7 +27930,7 @@
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
@@ -27924,13 +27942,13 @@
         <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>86</v>
+        <v>525</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -27981,19 +27999,19 @@
         <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221">
@@ -28001,10 +28019,10 @@
         <v>522</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28015,7 +28033,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>76</v>
@@ -28027,13 +28045,13 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -28072,31 +28090,31 @@
         <v>76</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD221" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222">
@@ -28104,10 +28122,10 @@
         <v>522</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28115,10 +28133,10 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>76</v>
@@ -28130,24 +28148,22 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R222" s="2"/>
       <c r="S222" t="s" s="2">
-        <v>818</v>
+        <v>76</v>
       </c>
       <c r="T222" t="s" s="2">
         <v>76</v>
@@ -28177,31 +28193,31 @@
         <v>76</v>
       </c>
       <c r="AC222" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD222" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE222" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223">
@@ -28209,10 +28225,10 @@
         <v>522</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28220,7 +28236,7 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>83</v>
@@ -28235,22 +28251,24 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>447</v>
+        <v>96</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O223" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R223" s="2"/>
       <c r="S223" t="s" s="2">
-        <v>76</v>
+        <v>823</v>
       </c>
       <c r="T223" t="s" s="2">
         <v>76</v>
@@ -28292,30 +28310,30 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI223" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28326,7 +28344,7 @@
         <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
@@ -28338,13 +28356,13 @@
         <v>76</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>385</v>
+        <v>103</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28395,19 +28413,19 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225">
@@ -28415,10 +28433,10 @@
         <v>382</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28429,7 +28447,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -28441,13 +28459,13 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -28498,19 +28516,19 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226">
@@ -28518,10 +28536,10 @@
         <v>382</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28532,7 +28550,7 @@
         <v>77</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>76</v>
@@ -28544,13 +28562,13 @@
         <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
@@ -28589,31 +28607,31 @@
         <v>76</v>
       </c>
       <c r="AC226" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD226" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227">
@@ -28621,10 +28639,10 @@
         <v>382</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28632,10 +28650,10 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -28647,24 +28665,22 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O227" s="2"/>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R227" s="2"/>
       <c r="S227" t="s" s="2">
-        <v>820</v>
+        <v>76</v>
       </c>
       <c r="T227" t="s" s="2">
         <v>76</v>
@@ -28694,31 +28710,31 @@
         <v>76</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD227" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
@@ -28726,10 +28742,10 @@
         <v>382</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28737,7 +28753,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -28752,22 +28768,24 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O228" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R228" s="2"/>
       <c r="S228" t="s" s="2">
-        <v>76</v>
+        <v>825</v>
       </c>
       <c r="T228" t="s" s="2">
         <v>76</v>
@@ -28809,30 +28827,30 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28843,7 +28861,7 @@
         <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>76</v>
@@ -28855,13 +28873,13 @@
         <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>517</v>
+        <v>103</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28912,19 +28930,19 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230">
@@ -28932,10 +28950,10 @@
         <v>514</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28946,7 +28964,7 @@
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -28958,13 +28976,13 @@
         <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>86</v>
+        <v>517</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
@@ -29015,19 +29033,19 @@
         <v>76</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
@@ -29035,10 +29053,10 @@
         <v>514</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29049,7 +29067,7 @@
         <v>77</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>76</v>
@@ -29061,13 +29079,13 @@
         <v>76</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
@@ -29106,31 +29124,31 @@
         <v>76</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD231" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232">
@@ -29138,10 +29156,10 @@
         <v>514</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29149,10 +29167,10 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>76</v>
@@ -29164,24 +29182,22 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O232" s="2"/>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R232" s="2"/>
       <c r="S232" t="s" s="2">
-        <v>823</v>
+        <v>76</v>
       </c>
       <c r="T232" t="s" s="2">
         <v>76</v>
@@ -29211,31 +29227,31 @@
         <v>76</v>
       </c>
       <c r="AC232" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD232" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233">
@@ -29243,10 +29259,10 @@
         <v>514</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29254,7 +29270,7 @@
       </c>
       <c r="F233" s="2"/>
       <c r="G233" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>83</v>
@@ -29269,22 +29285,24 @@
         <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R233" s="2"/>
       <c r="S233" t="s" s="2">
-        <v>76</v>
+        <v>828</v>
       </c>
       <c r="T233" t="s" s="2">
         <v>76</v>
@@ -29326,18 +29344,121 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B234" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AH233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
+      <c r="C234" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R234" s="2"/>
+      <c r="S234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AK233" t="s" s="2">
+      <c r="AK234" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:06:16+00:00</t>
+    <t>2024-01-15T16:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T16:45:58+00:00</t>
+    <t>2024-01-22T13:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:43:32+00:00</t>
+    <t>2024-01-23T09:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1649,6 +1649,19 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-label-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label}
+</t>
+  </si>
+  <si>
+    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
   </si>
   <si>
@@ -1662,20 +1675,7 @@
     <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
   </si>
   <si>
-    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-label-r5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label}
-</t>
-  </si>
-  <si>
-    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
-  </si>
-  <si>
-    <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai.</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -18884,7 +18884,7 @@
         <v>507</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>527</v>
+        <v>294</v>
       </c>
       <c r="E134" t="s" s="2">
         <v>76</v>
@@ -18894,7 +18894,7 @@
         <v>77</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>133</v>
@@ -18906,13 +18906,13 @@
         <v>76</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -18983,13 +18983,13 @@
         <v>491</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>507</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>294</v>
+        <v>531</v>
       </c>
       <c r="E135" t="s" s="2">
         <v>76</v>
@@ -18999,7 +18999,7 @@
         <v>77</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>133</v>

--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T09:22:43+00:00</t>
+    <t>2024-01-23T10:11:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1649,6 +1649,22 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t>eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
+</t>
+  </si>
+  <si>
+    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -1660,22 +1676,6 @@
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
-  </si>
-  <si>
-    <t>eclaire-description-summary-r5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
-</t>
-  </si>
-  <si>
-    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
-  </si>
-  <si>
-    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai.</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -18884,7 +18884,7 @@
         <v>507</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>294</v>
+        <v>527</v>
       </c>
       <c r="E134" t="s" s="2">
         <v>76</v>
@@ -18894,7 +18894,7 @@
         <v>77</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>133</v>
@@ -18906,13 +18906,13 @@
         <v>76</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -18983,13 +18983,13 @@
         <v>491</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>507</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>531</v>
+        <v>294</v>
       </c>
       <c r="E135" t="s" s="2">
         <v>76</v>
@@ -18999,7 +18999,7 @@
         <v>77</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>133</v>

--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T10:11:47+00:00</t>
+    <t>2024-01-23T11:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8249" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8378" uniqueCount="839">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T11:35:49+00:00</t>
+    <t>2024-01-23T17:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1665,6 +1665,37 @@
     <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -2350,10 +2381,6 @@
   </si>
   <si>
     <t>ResearchStudy.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
   </si>
   <si>
     <t>Résumé de l'essai / Summary Results</t>
@@ -4232,7 +4259,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>820</v>
+        <v>829</v>
       </c>
     </row>
     <row r="199">
@@ -4248,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="201">
@@ -4400,7 +4427,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="221">
@@ -4416,7 +4443,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>824</v>
+        <v>833</v>
       </c>
     </row>
     <row r="223">
@@ -4568,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="243">
@@ -4584,7 +4611,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>826</v>
+        <v>835</v>
       </c>
     </row>
     <row r="245">
@@ -4712,7 +4739,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="262">
@@ -4736,7 +4763,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>828</v>
+        <v>837</v>
       </c>
     </row>
     <row r="265">
@@ -4752,7 +4779,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>829</v>
+        <v>838</v>
       </c>
     </row>
     <row r="267">
@@ -4890,7 +4917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK234"/>
+  <dimension ref="A1:AK238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4900,7 +4927,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.5" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="29.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
@@ -18986,11 +19013,9 @@
         <v>531</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>76</v>
       </c>
@@ -18999,10 +19024,10 @@
         <v>77</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>76</v>
@@ -19011,13 +19036,13 @@
         <v>76</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>532</v>
+        <v>84</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>533</v>
+        <v>85</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>534</v>
+        <v>86</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -19068,19 +19093,19 @@
         <v>76</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
@@ -19088,27 +19113,27 @@
         <v>491</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>76</v>
@@ -19117,17 +19142,13 @@
         <v>89</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
         <v>76</v>
       </c>
@@ -19175,7 +19196,7 @@
         <v>93</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>77</v>
@@ -19195,7 +19216,7 @@
         <v>491</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>536</v>
@@ -19206,10 +19227,10 @@
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I137" t="s" s="2">
         <v>76</v>
@@ -19218,27 +19239,27 @@
         <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>537</v>
+        <v>97</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O137" s="2"/>
-      <c r="P137" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R137" s="2"/>
       <c r="S137" t="s" s="2">
-        <v>76</v>
+        <v>537</v>
       </c>
       <c r="T137" t="s" s="2">
         <v>76</v>
@@ -19268,31 +19289,31 @@
         <v>76</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>540</v>
+        <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>541</v>
+        <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>536</v>
+        <v>95</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
@@ -19300,46 +19321,42 @@
         <v>491</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>184</v>
+        <v>540</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>544</v>
+        <v>102</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>538</v>
+        <v>103</v>
       </c>
       <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>539</v>
-      </c>
+      <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>76</v>
       </c>
@@ -19387,13 +19404,13 @@
         <v>76</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>536</v>
+        <v>100</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>80</v>
@@ -19407,12 +19424,14 @@
         <v>491</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="D139" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="E139" t="s" s="2">
         <v>76</v>
       </c>
@@ -19421,10 +19440,10 @@
         <v>77</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>76</v>
@@ -19433,13 +19452,13 @@
         <v>76</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>84</v>
+        <v>542</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>85</v>
+        <v>543</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>86</v>
+        <v>544</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19490,19 +19509,19 @@
         <v>76</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140">
@@ -19510,10 +19529,10 @@
         <v>491</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19530,7 +19549,7 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>76</v>
@@ -19539,15 +19558,17 @@
         <v>89</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="P140" s="2"/>
+      <c r="P140" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q140" t="s" s="2">
         <v>76</v>
       </c>
@@ -19595,7 +19616,7 @@
         <v>93</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>77</v>
@@ -19615,10 +19636,10 @@
         <v>491</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19626,34 +19647,32 @@
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q141" t="s" s="2">
         <v>76</v>
@@ -19663,7 +19682,7 @@
         <v>76</v>
       </c>
       <c r="T141" t="s" s="2">
-        <v>555</v>
+        <v>76</v>
       </c>
       <c r="U141" t="s" s="2">
         <v>76</v>
@@ -19678,37 +19697,37 @@
         <v>76</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>556</v>
+        <v>76</v>
       </c>
       <c r="AA141" t="s" s="2">
-        <v>557</v>
+        <v>76</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>76</v>
+        <v>550</v>
       </c>
       <c r="AD141" t="s" s="2">
-        <v>76</v>
+        <v>551</v>
       </c>
       <c r="AE141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>80</v>
@@ -19722,12 +19741,14 @@
         <v>491</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="D142" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="E142" t="s" s="2">
         <v>76</v>
       </c>
@@ -19739,7 +19760,7 @@
         <v>83</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>76</v>
@@ -19748,19 +19769,17 @@
         <v>133</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>76</v>
@@ -19785,13 +19804,13 @@
         <v>76</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>565</v>
+        <v>76</v>
       </c>
       <c r="AA142" t="s" s="2">
-        <v>566</v>
+        <v>76</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>76</v>
@@ -19809,13 +19828,13 @@
         <v>76</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>80</v>
@@ -19829,10 +19848,10 @@
         <v>491</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19852,23 +19871,19 @@
         <v>76</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>570</v>
+        <v>85</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="P143" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>76</v>
       </c>
@@ -19880,7 +19895,7 @@
         <v>76</v>
       </c>
       <c r="U143" t="s" s="2">
-        <v>574</v>
+        <v>76</v>
       </c>
       <c r="V143" t="s" s="2">
         <v>76</v>
@@ -19916,7 +19931,7 @@
         <v>76</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>575</v>
+        <v>87</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>77</v>
@@ -19925,10 +19940,10 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144">
@@ -19936,21 +19951,21 @@
         <v>491</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>76</v>
@@ -19959,19 +19974,19 @@
         <v>76</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>578</v>
+        <v>174</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>579</v>
+        <v>237</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>580</v>
+        <v>176</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -19985,7 +20000,7 @@
         <v>76</v>
       </c>
       <c r="U144" t="s" s="2">
-        <v>581</v>
+        <v>76</v>
       </c>
       <c r="V144" t="s" s="2">
         <v>76</v>
@@ -20009,31 +20024,31 @@
         <v>76</v>
       </c>
       <c r="AC144" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>582</v>
+        <v>94</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145">
@@ -20041,10 +20056,10 @@
         <v>491</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -20052,7 +20067,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>83</v>
@@ -20061,24 +20076,26 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="P145" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="P145" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="Q145" t="s" s="2">
         <v>76</v>
       </c>
@@ -20087,7 +20104,7 @@
         <v>76</v>
       </c>
       <c r="T145" t="s" s="2">
-        <v>76</v>
+        <v>565</v>
       </c>
       <c r="U145" t="s" s="2">
         <v>76</v>
@@ -20102,13 +20119,13 @@
         <v>76</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AA145" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="AB145" t="s" s="2">
         <v>76</v>
@@ -20126,7 +20143,7 @@
         <v>76</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>77</v>
@@ -20138,7 +20155,7 @@
         <v>80</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146">
@@ -20146,10 +20163,10 @@
         <v>491</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -20172,18 +20189,20 @@
         <v>133</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="P146" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="P146" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="Q146" t="s" s="2">
         <v>76</v>
       </c>
@@ -20207,13 +20226,13 @@
         <v>76</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>76</v>
+        <v>575</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="AB146" t="s" s="2">
         <v>76</v>
@@ -20231,7 +20250,7 @@
         <v>76</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>77</v>
@@ -20243,7 +20262,7 @@
         <v>80</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147">
@@ -20251,14 +20270,12 @@
         <v>491</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>76</v>
       </c>
@@ -20267,10 +20284,10 @@
         <v>77</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
         <v>76</v>
@@ -20279,17 +20296,19 @@
         <v>133</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O147" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="P147" t="s" s="2">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>76</v>
@@ -20302,7 +20321,7 @@
         <v>76</v>
       </c>
       <c r="U147" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="V147" t="s" s="2">
         <v>76</v>
@@ -20338,13 +20357,13 @@
         <v>76</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>80</v>
@@ -20358,10 +20377,10 @@
         <v>491</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20381,18 +20400,20 @@
         <v>76</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L148" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>85</v>
+        <v>588</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
         <v>76</v>
@@ -20405,7 +20426,7 @@
         <v>76</v>
       </c>
       <c r="U148" t="s" s="2">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="V148" t="s" s="2">
         <v>76</v>
@@ -20441,7 +20462,7 @@
         <v>76</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>87</v>
+        <v>592</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>77</v>
@@ -20450,10 +20471,10 @@
         <v>83</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149">
@@ -20461,21 +20482,21 @@
         <v>491</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>76</v>
@@ -20484,19 +20505,19 @@
         <v>76</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>174</v>
+        <v>595</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>237</v>
+        <v>596</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
@@ -20534,31 +20555,31 @@
         <v>76</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>94</v>
+        <v>597</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150">
@@ -20566,10 +20587,10 @@
         <v>491</v>
       </c>
       <c r="B150" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C150" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20577,7 +20598,7 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>83</v>
@@ -20586,26 +20607,24 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>76</v>
       </c>
@@ -20614,7 +20633,7 @@
         <v>76</v>
       </c>
       <c r="T150" t="s" s="2">
-        <v>600</v>
+        <v>76</v>
       </c>
       <c r="U150" t="s" s="2">
         <v>76</v>
@@ -20629,13 +20648,13 @@
         <v>76</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>556</v>
+        <v>76</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>557</v>
+        <v>76</v>
       </c>
       <c r="AB150" t="s" s="2">
         <v>76</v>
@@ -20653,7 +20672,7 @@
         <v>76</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>77</v>
@@ -20665,7 +20684,7 @@
         <v>80</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151">
@@ -20673,12 +20692,14 @@
         <v>491</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="E151" t="s" s="2">
         <v>76</v>
       </c>
@@ -20687,10 +20708,10 @@
         <v>77</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>76</v>
@@ -20699,19 +20720,17 @@
         <v>133</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>76</v>
@@ -20736,13 +20755,13 @@
         <v>76</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>565</v>
+        <v>76</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>566</v>
+        <v>76</v>
       </c>
       <c r="AB151" t="s" s="2">
         <v>76</v>
@@ -20760,13 +20779,13 @@
         <v>76</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>80</v>
@@ -20780,10 +20799,10 @@
         <v>491</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20803,23 +20822,19 @@
         <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>570</v>
+        <v>85</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="P152" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>76</v>
       </c>
@@ -20831,7 +20846,7 @@
         <v>76</v>
       </c>
       <c r="U152" t="s" s="2">
-        <v>574</v>
+        <v>76</v>
       </c>
       <c r="V152" t="s" s="2">
         <v>76</v>
@@ -20867,7 +20882,7 @@
         <v>76</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>575</v>
+        <v>87</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>77</v>
@@ -20876,10 +20891,10 @@
         <v>83</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153">
@@ -20887,21 +20902,21 @@
         <v>491</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>76</v>
@@ -20910,19 +20925,19 @@
         <v>76</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>578</v>
+        <v>174</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>579</v>
+        <v>237</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>580</v>
+        <v>176</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
@@ -20936,7 +20951,7 @@
         <v>76</v>
       </c>
       <c r="U153" t="s" s="2">
-        <v>581</v>
+        <v>76</v>
       </c>
       <c r="V153" t="s" s="2">
         <v>76</v>
@@ -20960,31 +20975,31 @@
         <v>76</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>582</v>
+        <v>94</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154">
@@ -20992,10 +21007,10 @@
         <v>491</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -21003,7 +21018,7 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>83</v>
@@ -21012,24 +21027,26 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="P154" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="P154" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="Q154" t="s" s="2">
         <v>76</v>
       </c>
@@ -21038,7 +21055,7 @@
         <v>76</v>
       </c>
       <c r="T154" t="s" s="2">
-        <v>76</v>
+        <v>610</v>
       </c>
       <c r="U154" t="s" s="2">
         <v>76</v>
@@ -21053,13 +21070,13 @@
         <v>76</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="AB154" t="s" s="2">
         <v>76</v>
@@ -21077,7 +21094,7 @@
         <v>76</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>77</v>
@@ -21089,7 +21106,7 @@
         <v>80</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155">
@@ -21097,10 +21114,10 @@
         <v>491</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -21123,18 +21140,20 @@
         <v>133</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="P155" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="P155" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="Q155" t="s" s="2">
         <v>76</v>
       </c>
@@ -21158,13 +21177,13 @@
         <v>76</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>76</v>
+        <v>575</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="AB155" t="s" s="2">
         <v>76</v>
@@ -21182,7 +21201,7 @@
         <v>76</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>77</v>
@@ -21194,7 +21213,7 @@
         <v>80</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156">
@@ -21202,10 +21221,10 @@
         <v>491</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21219,7 +21238,7 @@
         <v>83</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>76</v>
@@ -21228,18 +21247,20 @@
         <v>133</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P156" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="P156" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="Q156" t="s" s="2">
         <v>76</v>
       </c>
@@ -21251,7 +21272,7 @@
         <v>76</v>
       </c>
       <c r="U156" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="V156" t="s" s="2">
         <v>76</v>
@@ -21287,7 +21308,7 @@
         <v>76</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>77</v>
@@ -21307,10 +21328,10 @@
         <v>491</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21321,7 +21342,7 @@
         <v>77</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>76</v>
@@ -21333,16 +21354,16 @@
         <v>133</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>610</v>
+        <v>84</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>283</v>
+        <v>590</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -21356,7 +21377,7 @@
         <v>76</v>
       </c>
       <c r="U157" t="s" s="2">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="V157" t="s" s="2">
         <v>76</v>
@@ -21392,19 +21413,19 @@
         <v>76</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158">
@@ -21412,21 +21433,21 @@
         <v>491</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>614</v>
+        <v>76</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>76</v>
@@ -21438,20 +21459,18 @@
         <v>133</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>615</v>
+        <v>267</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P158" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>76</v>
       </c>
@@ -21499,19 +21518,19 @@
         <v>76</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159">
@@ -21519,10 +21538,10 @@
         <v>491</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21530,31 +21549,31 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>215</v>
+        <v>602</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -21580,13 +21599,13 @@
         <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>622</v>
+        <v>76</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>623</v>
+        <v>76</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>76</v>
@@ -21604,10 +21623,10 @@
         <v>76</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>83</v>
@@ -21616,7 +21635,7 @@
         <v>80</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160">
@@ -21624,10 +21643,10 @@
         <v>491</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21641,7 +21660,7 @@
         <v>83</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J160" t="s" s="2">
         <v>76</v>
@@ -21650,16 +21669,16 @@
         <v>133</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
@@ -21685,13 +21704,13 @@
         <v>76</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>627</v>
+        <v>76</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>628</v>
+        <v>76</v>
       </c>
       <c r="AB160" t="s" s="2">
         <v>76</v>
@@ -21709,7 +21728,7 @@
         <v>76</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>77</v>
@@ -21729,10 +21748,10 @@
         <v>491</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21743,10 +21762,10 @@
         <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>76</v>
@@ -21755,16 +21774,16 @@
         <v>133</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>118</v>
+        <v>620</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
@@ -21790,11 +21809,13 @@
         <v>76</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z161" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA161" t="s" s="2">
-        <v>632</v>
+        <v>76</v>
       </c>
       <c r="AB161" t="s" s="2">
         <v>76</v>
@@ -21812,19 +21833,19 @@
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162">
@@ -21832,14 +21853,14 @@
         <v>491</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>76</v>
+        <v>624</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
@@ -21849,7 +21870,7 @@
         <v>78</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>76</v>
@@ -21858,18 +21879,20 @@
         <v>133</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>118</v>
+        <v>625</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P162" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="P162" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="Q162" t="s" s="2">
         <v>76</v>
       </c>
@@ -21893,11 +21916,13 @@
         <v>76</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z162" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA162" t="s" s="2">
-        <v>636</v>
+        <v>76</v>
       </c>
       <c r="AB162" t="s" s="2">
         <v>76</v>
@@ -21915,7 +21940,7 @@
         <v>76</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
@@ -21927,7 +21952,7 @@
         <v>80</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163">
@@ -21935,10 +21960,10 @@
         <v>491</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21946,31 +21971,31 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -21996,13 +22021,13 @@
         <v>76</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>76</v>
+        <v>633</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>76</v>
@@ -22020,13 +22045,13 @@
         <v>76</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>80</v>
@@ -22040,10 +22065,10 @@
         <v>491</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -22054,10 +22079,10 @@
         <v>77</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>76</v>
@@ -22069,10 +22094,10 @@
         <v>118</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>246</v>
@@ -22101,13 +22126,13 @@
         <v>76</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="AB164" t="s" s="2">
         <v>76</v>
@@ -22116,22 +22141,22 @@
         <v>76</v>
       </c>
       <c r="AD164" t="s" s="2">
-        <v>646</v>
+        <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>80</v>
@@ -22145,14 +22170,12 @@
         <v>491</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="D165" t="s" s="2">
-        <v>648</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>76</v>
       </c>
@@ -22161,7 +22184,7 @@
         <v>77</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>133</v>
@@ -22176,10 +22199,10 @@
         <v>118</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>246</v>
@@ -22208,13 +22231,11 @@
         <v>76</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Z165" s="2"/>
       <c r="AA165" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AB165" t="s" s="2">
         <v>76</v>
@@ -22232,13 +22253,13 @@
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>80</v>
@@ -22252,10 +22273,10 @@
         <v>491</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -22266,27 +22287,29 @@
         <v>77</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>85</v>
+        <v>644</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O166" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="O166" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>76</v>
@@ -22296,7 +22319,7 @@
         <v>76</v>
       </c>
       <c r="T166" t="s" s="2">
-        <v>652</v>
+        <v>76</v>
       </c>
       <c r="U166" t="s" s="2">
         <v>76</v>
@@ -22311,13 +22334,11 @@
         <v>76</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Z166" s="2"/>
       <c r="AA166" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="AB166" t="s" s="2">
         <v>76</v>
@@ -22335,19 +22356,19 @@
         <v>76</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>87</v>
+        <v>643</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167">
@@ -22355,14 +22376,14 @@
         <v>491</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
@@ -22378,19 +22399,19 @@
         <v>76</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>174</v>
+        <v>648</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>237</v>
+        <v>649</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
@@ -22416,10 +22437,10 @@
         <v>76</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>76</v>
+        <v>650</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>76</v>
@@ -22428,19 +22449,19 @@
         <v>76</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>94</v>
+        <v>647</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>77</v>
@@ -22452,7 +22473,7 @@
         <v>80</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168">
@@ -22460,10 +22481,10 @@
         <v>491</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22477,7 +22498,7 @@
         <v>78</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>76</v>
@@ -22486,20 +22507,18 @@
         <v>133</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="P168" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
         <v>76</v>
       </c>
@@ -22523,13 +22542,13 @@
         <v>76</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>76</v>
+        <v>654</v>
       </c>
       <c r="AA168" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="AB168" t="s" s="2">
         <v>76</v>
@@ -22538,16 +22557,16 @@
         <v>76</v>
       </c>
       <c r="AD168" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AE168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
@@ -22567,12 +22586,14 @@
         <v>491</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="D169" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>658</v>
+      </c>
       <c r="E169" t="s" s="2">
         <v>76</v>
       </c>
@@ -22581,27 +22602,29 @@
         <v>77</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>85</v>
+        <v>659</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O169" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
         <v>76</v>
@@ -22626,13 +22649,13 @@
         <v>76</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>76</v>
+        <v>654</v>
       </c>
       <c r="AA169" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="AB169" t="s" s="2">
         <v>76</v>
@@ -22650,19 +22673,19 @@
         <v>76</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>87</v>
+        <v>651</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170">
@@ -22670,21 +22693,21 @@
         <v>491</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>76</v>
@@ -22696,17 +22719,15 @@
         <v>76</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
         <v>76</v>
@@ -22716,7 +22737,7 @@
         <v>76</v>
       </c>
       <c r="T170" t="s" s="2">
-        <v>76</v>
+        <v>662</v>
       </c>
       <c r="U170" t="s" s="2">
         <v>76</v>
@@ -22743,31 +22764,31 @@
         <v>76</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171">
@@ -22775,21 +22796,21 @@
         <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I171" t="s" s="2">
         <v>76</v>
@@ -22798,23 +22819,21 @@
         <v>76</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>668</v>
+        <v>174</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>669</v>
+        <v>237</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="P171" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
         <v>76</v>
       </c>
@@ -22823,7 +22842,7 @@
         <v>76</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>672</v>
+        <v>76</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>76</v>
@@ -22850,31 +22869,31 @@
         <v>76</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE171" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>673</v>
+        <v>94</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="172">
@@ -22882,10 +22901,10 @@
         <v>491</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22896,7 +22915,7 @@
         <v>77</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>76</v>
@@ -22908,18 +22927,20 @@
         <v>133</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="P172" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="P172" t="s" s="2">
+        <v>670</v>
+      </c>
       <c r="Q172" t="s" s="2">
         <v>76</v>
       </c>
@@ -22967,13 +22988,13 @@
         <v>76</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>80</v>
@@ -22987,10 +23008,10 @@
         <v>491</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -23010,23 +23031,19 @@
         <v>76</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>682</v>
+        <v>85</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P173" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
       <c r="Q173" t="s" s="2">
         <v>76</v>
       </c>
@@ -23074,7 +23091,7 @@
         <v>76</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>685</v>
+        <v>87</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>77</v>
@@ -23083,10 +23100,10 @@
         <v>83</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174">
@@ -23094,21 +23111,21 @@
         <v>491</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>76</v>
@@ -23117,23 +23134,21 @@
         <v>76</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>688</v>
+        <v>174</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>689</v>
+        <v>237</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P174" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
         <v>76</v>
       </c>
@@ -23169,31 +23184,31 @@
         <v>76</v>
       </c>
       <c r="AC174" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE174" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>691</v>
+        <v>94</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175">
@@ -23201,10 +23216,10 @@
         <v>491</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -23227,19 +23242,19 @@
         <v>133</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="P175" t="s" s="2">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="Q175" t="s" s="2">
         <v>76</v>
@@ -23249,7 +23264,7 @@
         <v>76</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>76</v>
+        <v>682</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>76</v>
@@ -23288,7 +23303,7 @@
         <v>76</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>77</v>
@@ -23308,10 +23323,10 @@
         <v>491</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -23337,17 +23352,15 @@
         <v>84</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="P176" t="s" s="2">
-        <v>704</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
         <v>76</v>
       </c>
@@ -23395,7 +23408,7 @@
         <v>76</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>77</v>
@@ -23415,14 +23428,12 @@
         <v>491</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="D177" t="s" s="2">
-        <v>707</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>76</v>
       </c>
@@ -23431,10 +23442,10 @@
         <v>77</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J177" t="s" s="2">
         <v>76</v>
@@ -23443,18 +23454,20 @@
         <v>133</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>643</v>
+        <v>693</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P177" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>694</v>
+      </c>
       <c r="Q177" t="s" s="2">
         <v>76</v>
       </c>
@@ -23478,13 +23491,13 @@
         <v>76</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>644</v>
+        <v>76</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>645</v>
+        <v>76</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>76</v>
@@ -23502,13 +23515,13 @@
         <v>76</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>641</v>
+        <v>695</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>80</v>
@@ -23522,10 +23535,10 @@
         <v>491</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23545,19 +23558,23 @@
         <v>76</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L178" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>85</v>
+        <v>698</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="Q178" t="s" s="2">
         <v>76</v>
       </c>
@@ -23566,7 +23583,7 @@
         <v>76</v>
       </c>
       <c r="T178" t="s" s="2">
-        <v>710</v>
+        <v>76</v>
       </c>
       <c r="U178" t="s" s="2">
         <v>76</v>
@@ -23605,7 +23622,7 @@
         <v>76</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>87</v>
+        <v>701</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>77</v>
@@ -23614,10 +23631,10 @@
         <v>83</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179">
@@ -23625,21 +23642,21 @@
         <v>491</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I179" t="s" s="2">
         <v>76</v>
@@ -23648,21 +23665,23 @@
         <v>76</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>174</v>
+        <v>704</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>237</v>
+        <v>705</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P179" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="Q179" t="s" s="2">
         <v>76</v>
       </c>
@@ -23698,31 +23717,31 @@
         <v>76</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD179" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE179" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>94</v>
+        <v>708</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180">
@@ -23730,10 +23749,10 @@
         <v>491</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>656</v>
+        <v>710</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23744,7 +23763,7 @@
         <v>77</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>76</v>
@@ -23756,19 +23775,19 @@
         <v>133</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>345</v>
+        <v>84</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>657</v>
+        <v>711</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>658</v>
+        <v>712</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="P180" t="s" s="2">
-        <v>660</v>
+        <v>714</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>76</v>
@@ -23817,13 +23836,13 @@
         <v>76</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>661</v>
+        <v>715</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -23837,24 +23856,26 @@
         <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="D181" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>717</v>
+      </c>
       <c r="E181" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J181" t="s" s="2">
         <v>76</v>
@@ -23863,20 +23884,18 @@
         <v>133</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="P181" t="s" s="2">
-        <v>704</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
         <v>76</v>
       </c>
@@ -23900,13 +23919,13 @@
         <v>76</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>76</v>
+        <v>654</v>
       </c>
       <c r="AA181" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="AB181" t="s" s="2">
         <v>76</v>
@@ -23924,13 +23943,13 @@
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>705</v>
+        <v>651</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>80</v>
@@ -23944,10 +23963,10 @@
         <v>491</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>714</v>
+        <v>661</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23958,25 +23977,25 @@
         <v>77</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>715</v>
+        <v>84</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>716</v>
+        <v>85</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>717</v>
+        <v>86</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -23988,7 +24007,7 @@
         <v>76</v>
       </c>
       <c r="T182" t="s" s="2">
-        <v>76</v>
+        <v>720</v>
       </c>
       <c r="U182" t="s" s="2">
         <v>76</v>
@@ -24027,19 +24046,19 @@
         <v>76</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>714</v>
+        <v>87</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183">
@@ -24047,21 +24066,21 @@
         <v>491</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>718</v>
+        <v>664</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>76</v>
@@ -24073,15 +24092,17 @@
         <v>76</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O183" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>76</v>
@@ -24118,31 +24139,31 @@
         <v>76</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE183" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="184">
@@ -24150,14 +24171,14 @@
         <v>491</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>719</v>
+        <v>666</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" t="s" s="2">
@@ -24173,21 +24194,23 @@
         <v>76</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>174</v>
+        <v>667</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>237</v>
+        <v>668</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P184" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="P184" t="s" s="2">
+        <v>670</v>
+      </c>
       <c r="Q184" t="s" s="2">
         <v>76</v>
       </c>
@@ -24223,19 +24246,19 @@
         <v>76</v>
       </c>
       <c r="AC184" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD184" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE184" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>94</v>
+        <v>671</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>77</v>
@@ -24247,7 +24270,7 @@
         <v>80</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185">
@@ -24255,44 +24278,46 @@
         <v>491</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="D185" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K185" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J185" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L185" t="s" s="2">
-        <v>721</v>
+        <v>84</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="P185" t="s" s="2">
+        <v>714</v>
+      </c>
       <c r="Q185" t="s" s="2">
         <v>76</v>
       </c>
@@ -24340,19 +24365,19 @@
         <v>76</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>94</v>
+        <v>715</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186">
@@ -24360,14 +24385,12 @@
         <v>491</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
         <v>76</v>
       </c>
@@ -24376,7 +24399,7 @@
         <v>77</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I186" t="s" s="2">
         <v>133</v>
@@ -24385,16 +24408,16 @@
         <v>76</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>23</v>
+        <v>727</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -24445,7 +24468,7 @@
         <v>76</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>94</v>
+        <v>724</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>77</v>
@@ -24457,7 +24480,7 @@
         <v>80</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187">
@@ -24465,14 +24488,12 @@
         <v>491</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="D187" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
         <v>76</v>
       </c>
@@ -24484,7 +24505,7 @@
         <v>83</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>76</v>
@@ -24493,13 +24514,13 @@
         <v>76</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>727</v>
+        <v>84</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>728</v>
+        <v>85</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -24550,19 +24571,19 @@
         <v>76</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188">
@@ -24573,20 +24594,18 @@
         <v>729</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="D188" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H188" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I188" t="s" s="2">
         <v>76</v>
@@ -24598,15 +24617,17 @@
         <v>76</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>730</v>
+        <v>89</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>731</v>
+        <v>174</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O188" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
         <v>76</v>
@@ -24643,16 +24664,16 @@
         <v>76</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE188" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>94</v>
@@ -24675,12 +24696,14 @@
         <v>491</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="D189" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="E189" t="s" s="2">
         <v>76</v>
       </c>
@@ -24692,26 +24715,24 @@
         <v>83</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J189" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>84</v>
+        <v>731</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>735</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O189" s="2"/>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
         <v>76</v>
@@ -24760,19 +24781,19 @@
         <v>76</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>736</v>
+        <v>94</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="190">
@@ -24780,12 +24801,14 @@
         <v>491</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="D190" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E190" t="s" s="2">
         <v>76</v>
       </c>
@@ -24794,25 +24817,25 @@
         <v>77</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J190" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>375</v>
+        <v>734</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>739</v>
+        <v>23</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -24863,7 +24886,7 @@
         <v>76</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>740</v>
+        <v>94</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>77</v>
@@ -24875,7 +24898,7 @@
         <v>80</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="191">
@@ -24883,12 +24906,14 @@
         <v>491</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E191" t="s" s="2">
         <v>76</v>
       </c>
@@ -24897,7 +24922,7 @@
         <v>77</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I191" t="s" s="2">
         <v>133</v>
@@ -24909,17 +24934,15 @@
         <v>76</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>745</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O191" s="2"/>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
         <v>76</v>
@@ -24968,7 +24991,7 @@
         <v>76</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>741</v>
+        <v>94</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>77</v>
@@ -24980,7 +25003,7 @@
         <v>80</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192">
@@ -24988,12 +25011,14 @@
         <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="D192" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="E192" t="s" s="2">
         <v>76</v>
       </c>
@@ -25002,7 +25027,7 @@
         <v>77</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>76</v>
@@ -25011,20 +25036,18 @@
         <v>76</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>118</v>
+        <v>740</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O192" s="2"/>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>76</v>
@@ -25049,10 +25072,10 @@
         <v>76</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>749</v>
+        <v>76</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>76</v>
@@ -25073,7 +25096,7 @@
         <v>76</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>746</v>
+        <v>94</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>77</v>
@@ -25085,7 +25108,7 @@
         <v>80</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193">
@@ -25093,10 +25116,10 @@
         <v>491</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -25107,10 +25130,10 @@
         <v>77</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J193" t="s" s="2">
         <v>76</v>
@@ -25119,16 +25142,16 @@
         <v>133</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>246</v>
+        <v>745</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
@@ -25154,13 +25177,13 @@
         <v>76</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>753</v>
+        <v>76</v>
       </c>
       <c r="AA193" t="s" s="2">
-        <v>754</v>
+        <v>76</v>
       </c>
       <c r="AB193" t="s" s="2">
         <v>76</v>
@@ -25178,13 +25201,13 @@
         <v>76</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>80</v>
@@ -25198,10 +25221,10 @@
         <v>491</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -25212,29 +25235,27 @@
         <v>77</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K194" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J194" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L194" t="s" s="2">
-        <v>756</v>
+        <v>375</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>759</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="O194" s="2"/>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
         <v>76</v>
@@ -25283,19 +25304,19 @@
         <v>76</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>104</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195">
@@ -25303,14 +25324,14 @@
         <v>491</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>761</v>
+        <v>76</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" t="s" s="2">
@@ -25326,19 +25347,19 @@
         <v>76</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
@@ -25388,7 +25409,7 @@
         <v>76</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>77</v>
@@ -25400,7 +25421,7 @@
         <v>80</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196">
@@ -25408,21 +25429,21 @@
         <v>491</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>767</v>
+        <v>76</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I196" t="s" s="2">
         <v>76</v>
@@ -25434,16 +25455,16 @@
         <v>133</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
@@ -25469,10 +25490,10 @@
         <v>76</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>76</v>
+        <v>759</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>76</v>
@@ -25493,19 +25514,19 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197">
@@ -25513,10 +25534,10 @@
         <v>491</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25527,7 +25548,7 @@
         <v>77</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>133</v>
@@ -25539,16 +25560,16 @@
         <v>133</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
@@ -25574,13 +25595,13 @@
         <v>76</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>76</v>
+        <v>763</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="AB197" t="s" s="2">
         <v>76</v>
@@ -25598,19 +25619,19 @@
         <v>76</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198">
@@ -25618,10 +25639,10 @@
         <v>491</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25635,25 +25656,25 @@
         <v>83</v>
       </c>
       <c r="I198" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J198" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>774</v>
+        <v>540</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>283</v>
+        <v>768</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -25703,7 +25724,7 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
@@ -25715,7 +25736,7 @@
         <v>80</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199">
@@ -25723,14 +25744,14 @@
         <v>491</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
-        <v>76</v>
+        <v>770</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" t="s" s="2">
@@ -25749,16 +25770,16 @@
         <v>133</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>283</v>
+        <v>774</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
@@ -25808,7 +25829,7 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
@@ -25828,14 +25849,14 @@
         <v>491</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>76</v>
+        <v>776</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" t="s" s="2">
@@ -25854,16 +25875,16 @@
         <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -25889,13 +25910,13 @@
         <v>76</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>784</v>
+        <v>76</v>
       </c>
       <c r="AA200" t="s" s="2">
-        <v>785</v>
+        <v>76</v>
       </c>
       <c r="AB200" t="s" s="2">
         <v>76</v>
@@ -25913,7 +25934,7 @@
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>77</v>
@@ -25925,7 +25946,7 @@
         <v>80</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201">
@@ -25933,10 +25954,10 @@
         <v>491</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25947,28 +25968,28 @@
         <v>77</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J201" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>787</v>
+        <v>447</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>790</v>
+        <v>283</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
@@ -26018,19 +26039,19 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202">
@@ -26038,10 +26059,10 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26052,7 +26073,7 @@
         <v>77</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>76</v>
@@ -26061,18 +26082,20 @@
         <v>76</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>230</v>
+        <v>783</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="O202" s="2"/>
+        <v>785</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
         <v>76</v>
@@ -26121,19 +26144,19 @@
         <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203">
@@ -26141,10 +26164,10 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26155,27 +26178,29 @@
         <v>77</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J203" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>84</v>
+        <v>787</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>85</v>
+        <v>788</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O203" s="2"/>
+        <v>789</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
         <v>76</v>
@@ -26224,19 +26249,19 @@
         <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>87</v>
+        <v>786</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204">
@@ -26244,21 +26269,21 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>76</v>
@@ -26267,19 +26292,19 @@
         <v>76</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>174</v>
+        <v>791</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>237</v>
+        <v>792</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
@@ -26305,43 +26330,43 @@
         <v>76</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>76</v>
+        <v>793</v>
       </c>
       <c r="AA204" t="s" s="2">
-        <v>76</v>
+        <v>794</v>
       </c>
       <c r="AB204" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC204" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD204" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE204" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>94</v>
+        <v>790</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205">
@@ -26349,14 +26374,14 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" t="s" s="2">
@@ -26369,26 +26394,24 @@
         <v>76</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>89</v>
+        <v>796</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>240</v>
+        <v>797</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>241</v>
+        <v>798</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P205" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>76</v>
       </c>
@@ -26436,7 +26459,7 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>242</v>
+        <v>795</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
@@ -26448,7 +26471,7 @@
         <v>80</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206">
@@ -26456,10 +26479,10 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26467,10 +26490,10 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>76</v>
@@ -26482,17 +26505,15 @@
         <v>76</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="O206" s="2"/>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
         <v>76</v>
@@ -26541,13 +26562,13 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>80</v>
@@ -26561,10 +26582,10 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26587,17 +26608,15 @@
         <v>76</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>801</v>
+        <v>85</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O207" s="2"/>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
         <v>76</v>
@@ -26646,7 +26665,7 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>800</v>
+        <v>87</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
@@ -26655,10 +26674,10 @@
         <v>83</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208">
@@ -26666,21 +26685,21 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>76</v>
@@ -26692,16 +26711,16 @@
         <v>76</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>804</v>
+        <v>174</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>805</v>
+        <v>237</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
@@ -26739,31 +26758,31 @@
         <v>76</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD208" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE208" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>803</v>
+        <v>94</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="209">
@@ -26771,14 +26790,14 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
@@ -26791,22 +26810,26 @@
         <v>76</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>807</v>
+        <v>240</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P209" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q209" t="s" s="2">
         <v>76</v>
       </c>
@@ -26854,7 +26877,7 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>806</v>
+        <v>242</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>77</v>
@@ -26866,7 +26889,7 @@
         <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="210">
@@ -26874,10 +26897,10 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26885,7 +26908,7 @@
       </c>
       <c r="F210" s="2"/>
       <c r="G210" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H210" t="s" s="2">
         <v>83</v>
@@ -26903,12 +26926,14 @@
         <v>84</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>85</v>
+        <v>807</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O210" s="2"/>
+        <v>808</v>
+      </c>
+      <c r="O210" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>76</v>
@@ -26957,19 +26982,19 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>87</v>
+        <v>806</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211">
@@ -26977,21 +27002,21 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>76</v>
@@ -27003,16 +27028,16 @@
         <v>76</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>174</v>
+        <v>810</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>237</v>
+        <v>811</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
@@ -27050,31 +27075,31 @@
         <v>76</v>
       </c>
       <c r="AC211" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD211" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>94</v>
+        <v>809</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="212">
@@ -27082,46 +27107,44 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>240</v>
+        <v>813</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>241</v>
+        <v>814</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P212" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
         <v>76</v>
       </c>
@@ -27169,19 +27192,19 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>242</v>
+        <v>812</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="213">
@@ -27189,10 +27212,10 @@
         <v>491</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27203,7 +27226,7 @@
         <v>77</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>76</v>
@@ -27215,17 +27238,15 @@
         <v>76</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="O213" s="2"/>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>76</v>
@@ -27274,13 +27295,13 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>80</v>
@@ -27294,10 +27315,10 @@
         <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27320,17 +27341,15 @@
         <v>76</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>816</v>
+        <v>85</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O214" s="2"/>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27355,13 +27374,13 @@
         <v>76</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>818</v>
+        <v>76</v>
       </c>
       <c r="AA214" t="s" s="2">
-        <v>819</v>
+        <v>76</v>
       </c>
       <c r="AB214" t="s" s="2">
         <v>76</v>
@@ -27379,7 +27398,7 @@
         <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>815</v>
+        <v>87</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>77</v>
@@ -27388,25 +27407,25 @@
         <v>83</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>31</v>
+        <v>819</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>31</v>
+        <v>819</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
@@ -27425,15 +27444,17 @@
         <v>76</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O215" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>76</v>
@@ -27470,19 +27491,19 @@
         <v>76</v>
       </c>
       <c r="AC215" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD215" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
@@ -27499,45 +27520,49 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>82</v>
+        <v>820</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>82</v>
+        <v>820</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P216" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q216" t="s" s="2">
         <v>76</v>
       </c>
@@ -27585,30 +27610,30 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>88</v>
+        <v>821</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>88</v>
+        <v>821</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27619,7 +27644,7 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>76</v>
@@ -27631,15 +27656,17 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>31</v>
+        <v>822</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O217" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
         <v>76</v>
@@ -27676,42 +27703,42 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>94</v>
+        <v>821</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>95</v>
+        <v>824</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>95</v>
+        <v>824</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27719,7 +27746,7 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>83</v>
@@ -27734,16 +27761,16 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>97</v>
+        <v>825</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>98</v>
+        <v>826</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
@@ -27751,7 +27778,7 @@
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>820</v>
+        <v>76</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -27769,13 +27796,13 @@
         <v>76</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z218" t="s" s="2">
-        <v>76</v>
+        <v>827</v>
       </c>
       <c r="AA218" t="s" s="2">
-        <v>76</v>
+        <v>828</v>
       </c>
       <c r="AB218" t="s" s="2">
         <v>76</v>
@@ -27793,19 +27820,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>95</v>
+        <v>824</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="219">
@@ -27813,10 +27840,10 @@
         <v>509</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27827,7 +27854,7 @@
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -27839,13 +27866,13 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>822</v>
+        <v>79</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -27896,30 +27923,30 @@
         <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27930,7 +27957,7 @@
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
@@ -27942,13 +27969,13 @@
         <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>525</v>
+        <v>86</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -27999,30 +28026,30 @@
         <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28033,7 +28060,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>76</v>
@@ -28045,13 +28072,13 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -28090,42 +28117,42 @@
         <v>76</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD221" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28133,10 +28160,10 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>76</v>
@@ -28148,22 +28175,24 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O222" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O222" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R222" s="2"/>
       <c r="S222" t="s" s="2">
-        <v>76</v>
+        <v>829</v>
       </c>
       <c r="T222" t="s" s="2">
         <v>76</v>
@@ -28193,42 +28222,42 @@
         <v>76</v>
       </c>
       <c r="AC222" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD222" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE222" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28236,7 +28265,7 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>83</v>
@@ -28251,24 +28280,22 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>96</v>
+        <v>831</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O223" s="2"/>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R223" s="2"/>
       <c r="S223" t="s" s="2">
-        <v>823</v>
+        <v>76</v>
       </c>
       <c r="T223" t="s" s="2">
         <v>76</v>
@@ -28310,19 +28337,19 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI223" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="224">
@@ -28330,10 +28357,10 @@
         <v>522</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28344,7 +28371,7 @@
         <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
@@ -28356,13 +28383,13 @@
         <v>76</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28413,30 +28440,30 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28447,7 +28474,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -28459,13 +28486,13 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -28516,30 +28543,30 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28550,7 +28577,7 @@
         <v>77</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>76</v>
@@ -28562,13 +28589,13 @@
         <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
@@ -28607,42 +28634,42 @@
         <v>76</v>
       </c>
       <c r="AC226" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD226" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28650,10 +28677,10 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -28665,22 +28692,24 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O227" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O227" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R227" s="2"/>
       <c r="S227" t="s" s="2">
-        <v>76</v>
+        <v>832</v>
       </c>
       <c r="T227" t="s" s="2">
         <v>76</v>
@@ -28710,42 +28739,42 @@
         <v>76</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD227" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28753,7 +28782,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -28768,24 +28797,22 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O228" s="2"/>
       <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R228" s="2"/>
       <c r="S228" t="s" s="2">
-        <v>825</v>
+        <v>76</v>
       </c>
       <c r="T228" t="s" s="2">
         <v>76</v>
@@ -28827,19 +28854,19 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229">
@@ -28847,10 +28874,10 @@
         <v>382</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28861,7 +28888,7 @@
         <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>76</v>
@@ -28873,13 +28900,13 @@
         <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28930,30 +28957,30 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28964,7 +28991,7 @@
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -28976,13 +29003,13 @@
         <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>517</v>
+        <v>86</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
@@ -29033,30 +29060,30 @@
         <v>76</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29067,7 +29094,7 @@
         <v>77</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>76</v>
@@ -29079,13 +29106,13 @@
         <v>76</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
@@ -29124,42 +29151,42 @@
         <v>76</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD231" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29167,10 +29194,10 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>76</v>
@@ -29182,22 +29209,24 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O232" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R232" s="2"/>
       <c r="S232" t="s" s="2">
-        <v>76</v>
+        <v>834</v>
       </c>
       <c r="T232" t="s" s="2">
         <v>76</v>
@@ -29227,42 +29256,42 @@
         <v>76</v>
       </c>
       <c r="AC232" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD232" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29270,7 +29299,7 @@
       </c>
       <c r="F233" s="2"/>
       <c r="G233" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>83</v>
@@ -29285,24 +29314,22 @@
         <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O233" s="2"/>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R233" s="2"/>
       <c r="S233" t="s" s="2">
-        <v>828</v>
+        <v>76</v>
       </c>
       <c r="T233" t="s" s="2">
         <v>76</v>
@@ -29344,19 +29371,19 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI233" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="234">
@@ -29364,10 +29391,10 @@
         <v>514</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29378,7 +29405,7 @@
         <v>77</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>76</v>
@@ -29390,13 +29417,13 @@
         <v>76</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
@@ -29447,18 +29474,432 @@
         <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R235" s="2"/>
+      <c r="S235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R236" s="2"/>
+      <c r="S236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P237" s="2"/>
+      <c r="Q237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R237" s="2"/>
+      <c r="S237" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK237" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R238" s="2"/>
+      <c r="S238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK238" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8378" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="854">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T17:43:55+00:00</t>
+    <t>2024-01-24T10:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2423,6 +2423,53 @@
   </si>
   <si>
     <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.end</t>
+  </si>
+  <si>
+    <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -4259,7 +4306,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="199">
@@ -4275,7 +4322,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>830</v>
+        <v>845</v>
       </c>
     </row>
     <row r="201">
@@ -4427,7 +4474,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>832</v>
+        <v>847</v>
       </c>
     </row>
     <row r="221">
@@ -4443,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>833</v>
+        <v>848</v>
       </c>
     </row>
     <row r="223">
@@ -4595,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>834</v>
+        <v>849</v>
       </c>
     </row>
     <row r="243">
@@ -4611,7 +4658,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>835</v>
+        <v>850</v>
       </c>
     </row>
     <row r="245">
@@ -4739,7 +4786,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>836</v>
+        <v>851</v>
       </c>
     </row>
     <row r="262">
@@ -4763,7 +4810,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>837</v>
+        <v>852</v>
       </c>
     </row>
     <row r="265">
@@ -4779,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>838</v>
+        <v>853</v>
       </c>
     </row>
     <row r="267">
@@ -4917,7 +4964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK238"/>
+  <dimension ref="A1:AK242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -25971,26 +26018,24 @@
         <v>83</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J201" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>780</v>
+        <v>85</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O201" s="2"/>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>76</v>
@@ -26039,7 +26084,7 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>779</v>
+        <v>87</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>77</v>
@@ -26048,10 +26093,10 @@
         <v>83</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202">
@@ -26059,21 +26104,21 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>76</v>
@@ -26082,19 +26127,19 @@
         <v>76</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>783</v>
+        <v>89</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>784</v>
+        <v>174</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>785</v>
+        <v>237</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
@@ -26132,31 +26177,31 @@
         <v>76</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD202" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>782</v>
+        <v>94</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="203">
@@ -26164,10 +26209,10 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26178,10 +26223,10 @@
         <v>77</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J203" t="s" s="2">
         <v>76</v>
@@ -26190,16 +26235,16 @@
         <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>283</v>
+        <v>785</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -26255,13 +26300,13 @@
         <v>77</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>80</v>
+        <v>787</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204">
@@ -26269,10 +26314,10 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26286,7 +26331,7 @@
         <v>83</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J204" t="s" s="2">
         <v>76</v>
@@ -26295,22 +26340,24 @@
         <v>133</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>118</v>
+        <v>782</v>
       </c>
       <c r="M204" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="O204" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>792</v>
+      </c>
       <c r="S204" t="s" s="2">
         <v>76</v>
       </c>
@@ -26330,32 +26377,32 @@
         <v>76</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG204" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="AA204" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>790</v>
-      </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
       </c>
@@ -26363,7 +26410,7 @@
         <v>83</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>80</v>
+        <v>787</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>104</v>
@@ -26374,10 +26421,10 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26388,28 +26435,28 @@
         <v>77</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N205" t="s" s="2">
         <v>796</v>
       </c>
-      <c r="M205" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>798</v>
-      </c>
       <c r="O205" t="s" s="2">
-        <v>799</v>
+        <v>283</v>
       </c>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
@@ -26459,19 +26506,19 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206">
@@ -26479,10 +26526,10 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26493,7 +26540,7 @@
         <v>77</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>76</v>
@@ -26502,18 +26549,20 @@
         <v>76</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>230</v>
+        <v>798</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O206" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
         <v>76</v>
@@ -26562,19 +26611,19 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207">
@@ -26582,10 +26631,10 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26596,27 +26645,29 @@
         <v>77</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I207" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J207" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>84</v>
+        <v>802</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>85</v>
+        <v>803</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O207" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
         <v>76</v>
@@ -26665,19 +26716,19 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>87</v>
+        <v>801</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208">
@@ -26685,21 +26736,21 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>76</v>
@@ -26708,19 +26759,19 @@
         <v>76</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>174</v>
+        <v>806</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>237</v>
+        <v>807</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
@@ -26746,43 +26797,43 @@
         <v>76</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>76</v>
+        <v>808</v>
       </c>
       <c r="AA208" t="s" s="2">
-        <v>76</v>
+        <v>809</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD208" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE208" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>94</v>
+        <v>805</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="209">
@@ -26790,14 +26841,14 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
@@ -26810,26 +26861,24 @@
         <v>76</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>89</v>
+        <v>811</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>240</v>
+        <v>812</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>241</v>
+        <v>813</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P209" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
         <v>76</v>
       </c>
@@ -26877,7 +26926,7 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>242</v>
+        <v>810</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>77</v>
@@ -26889,7 +26938,7 @@
         <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210">
@@ -26897,10 +26946,10 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26908,10 +26957,10 @@
       </c>
       <c r="F210" s="2"/>
       <c r="G210" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>76</v>
@@ -26923,17 +26972,15 @@
         <v>76</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="O210" s="2"/>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>76</v>
@@ -26982,13 +27029,13 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>80</v>
@@ -27002,10 +27049,10 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27028,17 +27075,15 @@
         <v>76</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>810</v>
+        <v>85</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O211" s="2"/>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>76</v>
@@ -27087,7 +27132,7 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>809</v>
+        <v>87</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
@@ -27096,10 +27141,10 @@
         <v>83</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212">
@@ -27107,21 +27152,21 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>76</v>
@@ -27133,16 +27178,16 @@
         <v>76</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>813</v>
+        <v>174</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>814</v>
+        <v>237</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
@@ -27180,31 +27225,31 @@
         <v>76</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD212" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>812</v>
+        <v>94</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213">
@@ -27212,14 +27257,14 @@
         <v>491</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
@@ -27232,22 +27277,26 @@
         <v>76</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>816</v>
+        <v>240</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P213" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q213" t="s" s="2">
         <v>76</v>
       </c>
@@ -27295,7 +27344,7 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>815</v>
+        <v>242</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
@@ -27307,7 +27356,7 @@
         <v>80</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214">
@@ -27315,10 +27364,10 @@
         <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27326,7 +27375,7 @@
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>83</v>
@@ -27344,12 +27393,14 @@
         <v>84</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>85</v>
+        <v>822</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27398,19 +27449,19 @@
         <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>87</v>
+        <v>821</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215">
@@ -27418,21 +27469,21 @@
         <v>491</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>76</v>
@@ -27444,16 +27495,16 @@
         <v>76</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>174</v>
+        <v>825</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>237</v>
+        <v>826</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
@@ -27491,31 +27542,31 @@
         <v>76</v>
       </c>
       <c r="AC215" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD215" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>94</v>
+        <v>824</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216">
@@ -27523,46 +27574,44 @@
         <v>491</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>240</v>
+        <v>828</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>241</v>
+        <v>829</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P216" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P216" s="2"/>
       <c r="Q216" t="s" s="2">
         <v>76</v>
       </c>
@@ -27610,19 +27659,19 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>242</v>
+        <v>827</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217">
@@ -27630,10 +27679,10 @@
         <v>491</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27644,7 +27693,7 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>76</v>
@@ -27656,17 +27705,15 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="O217" s="2"/>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
         <v>76</v>
@@ -27715,13 +27762,13 @@
         <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>80</v>
@@ -27735,10 +27782,10 @@
         <v>491</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27761,17 +27808,15 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>825</v>
+        <v>85</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
@@ -27796,13 +27841,13 @@
         <v>76</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z218" t="s" s="2">
-        <v>827</v>
+        <v>76</v>
       </c>
       <c r="AA218" t="s" s="2">
-        <v>828</v>
+        <v>76</v>
       </c>
       <c r="AB218" t="s" s="2">
         <v>76</v>
@@ -27820,7 +27865,7 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>824</v>
+        <v>87</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>77</v>
@@ -27829,25 +27874,25 @@
         <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>31</v>
+        <v>834</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>31</v>
+        <v>834</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
@@ -27866,15 +27911,17 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O219" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>76</v>
@@ -27911,19 +27958,19 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
@@ -27940,45 +27987,49 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>82</v>
+        <v>835</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>82</v>
+        <v>835</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P220" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28026,30 +28077,30 @@
         <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>88</v>
+        <v>836</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>88</v>
+        <v>836</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28060,7 +28111,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>76</v>
@@ -28072,15 +28123,17 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>31</v>
+        <v>837</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O221" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="O221" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
@@ -28117,42 +28170,42 @@
         <v>76</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD221" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>94</v>
+        <v>836</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ221" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>95</v>
+        <v>839</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>95</v>
+        <v>839</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28160,7 +28213,7 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>83</v>
@@ -28175,16 +28228,16 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>97</v>
+        <v>840</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>98</v>
+        <v>841</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
@@ -28192,7 +28245,7 @@
       </c>
       <c r="R222" s="2"/>
       <c r="S222" t="s" s="2">
-        <v>829</v>
+        <v>76</v>
       </c>
       <c r="T222" t="s" s="2">
         <v>76</v>
@@ -28210,13 +28263,13 @@
         <v>76</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>76</v>
+        <v>842</v>
       </c>
       <c r="AA222" t="s" s="2">
-        <v>76</v>
+        <v>843</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>76</v>
@@ -28234,19 +28287,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>95</v>
+        <v>839</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="223">
@@ -28254,10 +28307,10 @@
         <v>509</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28268,7 +28321,7 @@
         <v>77</v>
       </c>
       <c r="H223" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
         <v>76</v>
@@ -28280,13 +28333,13 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>831</v>
+        <v>79</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
@@ -28337,30 +28390,30 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28371,7 +28424,7 @@
         <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
@@ -28383,13 +28436,13 @@
         <v>76</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>525</v>
+        <v>86</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28440,30 +28493,30 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28474,7 +28527,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -28486,13 +28539,13 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -28531,42 +28584,42 @@
         <v>76</v>
       </c>
       <c r="AC225" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD225" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28574,10 +28627,10 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>76</v>
@@ -28589,22 +28642,24 @@
         <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O226" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>76</v>
+        <v>844</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -28634,42 +28689,42 @@
         <v>76</v>
       </c>
       <c r="AC226" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD226" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28677,7 +28732,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>83</v>
@@ -28692,24 +28747,22 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>96</v>
+        <v>846</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O227" s="2"/>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R227" s="2"/>
       <c r="S227" t="s" s="2">
-        <v>832</v>
+        <v>76</v>
       </c>
       <c r="T227" t="s" s="2">
         <v>76</v>
@@ -28751,19 +28804,19 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -28771,10 +28824,10 @@
         <v>522</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28785,7 +28838,7 @@
         <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>76</v>
@@ -28797,13 +28850,13 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28854,30 +28907,30 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28888,7 +28941,7 @@
         <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>76</v>
@@ -28900,13 +28953,13 @@
         <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28957,30 +29010,30 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28991,7 +29044,7 @@
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29003,13 +29056,13 @@
         <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
@@ -29048,42 +29101,42 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29091,10 +29144,10 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>76</v>
@@ -29106,22 +29159,24 @@
         <v>76</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O231" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>76</v>
+        <v>847</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>
@@ -29151,42 +29206,42 @@
         <v>76</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD231" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29194,7 +29249,7 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>83</v>
@@ -29209,24 +29264,22 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O232" s="2"/>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R232" s="2"/>
       <c r="S232" t="s" s="2">
-        <v>834</v>
+        <v>76</v>
       </c>
       <c r="T232" t="s" s="2">
         <v>76</v>
@@ -29268,19 +29321,19 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233">
@@ -29288,10 +29341,10 @@
         <v>382</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29302,7 +29355,7 @@
         <v>77</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>76</v>
@@ -29314,13 +29367,13 @@
         <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -29371,30 +29424,30 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29405,7 +29458,7 @@
         <v>77</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>76</v>
@@ -29417,13 +29470,13 @@
         <v>76</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>517</v>
+        <v>86</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
@@ -29474,30 +29527,30 @@
         <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29508,7 +29561,7 @@
         <v>77</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>76</v>
@@ -29520,13 +29573,13 @@
         <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
@@ -29565,42 +29618,42 @@
         <v>76</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD235" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29608,10 +29661,10 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>76</v>
@@ -29623,22 +29676,24 @@
         <v>76</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O236" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R236" s="2"/>
       <c r="S236" t="s" s="2">
-        <v>76</v>
+        <v>849</v>
       </c>
       <c r="T236" t="s" s="2">
         <v>76</v>
@@ -29668,42 +29723,42 @@
         <v>76</v>
       </c>
       <c r="AC236" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD236" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29711,7 +29766,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -29726,24 +29781,22 @@
         <v>76</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O237" s="2"/>
       <c r="P237" s="2"/>
       <c r="Q237" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R237" s="2"/>
       <c r="S237" t="s" s="2">
-        <v>837</v>
+        <v>76</v>
       </c>
       <c r="T237" t="s" s="2">
         <v>76</v>
@@ -29785,19 +29838,19 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH237" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI237" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238">
@@ -29805,10 +29858,10 @@
         <v>514</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29819,7 +29872,7 @@
         <v>77</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I238" t="s" s="2">
         <v>76</v>
@@ -29831,13 +29884,13 @@
         <v>76</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
@@ -29888,18 +29941,432 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK238" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N239" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R239" s="2"/>
+      <c r="S239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK239" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R240" s="2"/>
+      <c r="S240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O241" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P241" s="2"/>
+      <c r="Q241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R241" s="2"/>
+      <c r="S241" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R242" s="2"/>
+      <c r="S242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK242" t="s" s="2">
         <v>104</v>
       </c>
     </row>
